--- a/DateBase/orders/Nha Thu_2025-9-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-20.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>187_香水宝塔_undefined_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09681510101314100</v>
+        <v>09681510101314104</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,89 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>532_灯苔_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F16" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09681510101314104</v>
+        <v>096815101013141041010101025551000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-20.xlsx
@@ -606,6 +606,9 @@
       <c r="C21" t="str">
         <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -667,7 +670,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>096815101013141041010101025551000</v>
+        <v>096815101013141041010101025551003</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -607,12 +607,179 @@
         <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>3</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>619_康乃馨樱桃紫_undefined_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>4</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>5</v>
+      </c>
+      <c r="C29" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>433_红豆_Hypericum red_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>582_腊梅蓝_wax blue_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -670,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>096815101013141041010101025551003</v>
+        <v>09681510101314104101010102555100303015510101010515105551010553060</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-9-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-9-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -776,10 +776,64 @@
       <c r="C41" t="str">
         <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>6</v>
+      </c>
+      <c r="C43" t="str">
+        <v>237_酷皮_Kupi_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L47"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -837,7 +891,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09681510101314104101010102555100303015510101010515105551010553060</v>
+        <v>096815101013141041010101025551003030155101010105151055510105530616715151510</v>
       </c>
     </row>
   </sheetData>
